--- a/olympus/M321.xlsx
+++ b/olympus/M321.xlsx
@@ -245,142 +245,142 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2023-07-21 23:50:00</t>
+          <t>2023-07-21 22:50:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.16153128445148468</v>
+        <v>0.14218935370445251</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.24477067589759827</v>
+        <v>0.13346683979034424</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.5380183458328247</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.3609488010406494</v>
+        <v>2.174739122390747</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.4682496786117554</v>
+        <v>2.468075752258301</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>3.5343003273010254</v>
+        <v>4.972499847412109</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>40.42894744873047</v>
+        <v>40.51432800292969</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-73.66667175292969</v>
+        <v>-73.98385620117188</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1005.7521362304688</v>
+        <v>1005.6695556640625</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.200000286102295</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.0</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4.800000190734863</v>
+        <v>7.0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.800000190734863</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>18.700000762939453</v>
+        <v>18.60033416748047</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>28.992679595947266</v>
+        <v>31.798856735229492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 01:50:00</t>
+          <t>2023-07-21 23:50:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.200215145945549</v>
+        <v>0.16153128445148468</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.41554194688796997</v>
+        <v>0.24477067589759827</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.7438735961914062</v>
+        <v>1.5380183458328247</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.343691349029541</v>
+        <v>1.3609488010406494</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.559542417526245</v>
+        <v>1.4682496786117554</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.6503398418426514</v>
+        <v>0.0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0</v>
+        <v>3.5343003273010254</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>40.371761322021484</v>
+        <v>40.42894744873047</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-72.7816162109375</v>
+        <v>-73.66667175292969</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1005.917236328125</v>
+        <v>1005.7521362304688</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>5.0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>22.75010108947754</v>
+        <v>18.700000762939453</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>27.774667739868164</v>
+        <v>28.992679595947266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 03:50:00</t>
+          <t>2023-07-22 00:50:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.04005188122391701</v>
+        <v>0.18087321519851685</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.27018725872039795</v>
+        <v>0.33479779958724976</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.617414712905884</v>
+        <v>2.6855084896087646</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.277289390563965</v>
+        <v>2.3974697589874268</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.455920696258545</v>
+        <v>2.555365800857544</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.5214154720306396</v>
+        <v>2.6121408939361572</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0.0</v>
@@ -389,56 +389,56 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>40.389442443847656</v>
+        <v>40.37190246582031</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-71.79991149902344</v>
+        <v>-73.2630386352539</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1006.0823364257812</v>
+        <v>1005.8346557617188</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>9.0</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>23.299999237060547</v>
+        <v>22.799999237060547</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>27.538597106933594</v>
+        <v>28.179513931274414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 05:50:00</t>
+          <t>2023-07-22 01:50:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0884687602519989</v>
+        <v>0.200215145945549</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.5045133233070374</v>
+        <v>0.41554194688796997</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.68503999710083</v>
+        <v>2.7438735961914062</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.388037919998169</v>
+        <v>2.343691349029541</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.5757508277893066</v>
+        <v>2.559542417526245</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.6151976585388184</v>
+        <v>2.6503398418426514</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.0</v>
@@ -447,56 +447,56 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>40.40715789794922</v>
+        <v>40.371761322021484</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-70.82042694091797</v>
+        <v>-72.7816162109375</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1006.2474365234375</v>
+        <v>1005.917236328125</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O6" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P6" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
-      <c r="P6" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="Q6" s="2" t="n">
-        <v>22.63326644897461</v>
+        <v>22.75010108947754</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>28.026185989379883</v>
+        <v>27.774667739868164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 07:50:00</t>
+          <t>2023-07-22 02:50:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.1368856430053711</v>
+        <v>0.01584343984723091</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.2880140244960785</v>
+        <v>0.40783584117889404</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.660536527633667</v>
+        <v>2.6735966205596924</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.387211799621582</v>
+        <v>2.316932201385498</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.558504104614258</v>
+        <v>2.513427495956421</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.596669912338257</v>
+        <v>2.5958611965179443</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0.0</v>
@@ -505,56 +505,56 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>40.42478561401367</v>
+        <v>40.3806037902832</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-69.83645629882812</v>
+        <v>-72.28981018066406</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1006.4125366210938</v>
+        <v>1005.999755859375</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="O7" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P7" s="2" t="n">
         <v>8.699999809265137</v>
       </c>
-      <c r="P7" s="2" t="n">
-        <v>9.199999809265137</v>
-      </c>
       <c r="Q7" s="2" t="n">
-        <v>23.600000381469727</v>
+        <v>22.933155059814453</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>27.675111770629883</v>
+        <v>27.748960494995117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 09:50:00</t>
+          <t>2023-07-22 03:50:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.1853025257587433</v>
+        <v>0.04005188122391701</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.29420045018196106</v>
+        <v>0.27018725872039795</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.7759623527526855</v>
+        <v>2.617414712905884</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.5185372829437256</v>
+        <v>2.277289390563965</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.6532235145568848</v>
+        <v>2.455920696258545</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.7171146869659424</v>
+        <v>2.5214154720306396</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0.0</v>
@@ -563,56 +563,56 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40.442344665527344</v>
+        <v>40.389442443847656</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-68.85970306396484</v>
+        <v>-71.79991149902344</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1006.57763671875</v>
+        <v>1006.0823364257812</v>
       </c>
       <c r="M8" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>9.0</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
       <c r="O8" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>22.820072174072266</v>
+        <v>23.299999237060547</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>25.41761589050293</v>
+        <v>27.538597106933594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 11:50:00</t>
+          <t>2023-07-22 04:50:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.047382231801748276</v>
+        <v>0.0642603188753128</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.33709976077079773</v>
+        <v>0.30183565616607666</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.7632832527160645</v>
+        <v>2.688950300216675</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.4730265140533447</v>
+        <v>2.3316500186920166</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.6617586612701416</v>
+        <v>2.519109010696411</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.6853926181793213</v>
+        <v>2.582031011581421</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0.0</v>
@@ -621,56 +621,56 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>40.47079849243164</v>
+        <v>40.39820861816406</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-67.89988708496094</v>
+        <v>-71.3106918334961</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1007.5618896484375</v>
+        <v>1006.1648559570312</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.900101661682129</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.099899291992188</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.700100898742676</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>22.230735778808594</v>
+        <v>23.199899673461914</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>23.668121337890625</v>
+        <v>27.600000381469727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 13:50:00</t>
+          <t>2023-07-22 05:50:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.10546605288982391</v>
+        <v>0.0884687602519989</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.4443778097629547</v>
+        <v>0.5045133233070374</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.757434368133545</v>
+        <v>2.68503999710083</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.489407539367676</v>
+        <v>2.388037919998169</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.635348320007324</v>
+        <v>2.5757508277893066</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.657017946243286</v>
+        <v>2.6151976585388184</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.0</v>
@@ -679,56 +679,56 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>40.49857711791992</v>
+        <v>40.40715789794922</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-66.94312286376953</v>
+        <v>-70.82042694091797</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1007.800048828125</v>
+        <v>1006.2474365234375</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>23.249874114990234</v>
+        <v>22.63326644897461</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>25.627206802368164</v>
+        <v>28.026185989379883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 15:50:00</t>
+          <t>2023-07-22 06:50:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.16354987025260925</v>
+        <v>0.112677201628685</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.3281726837158203</v>
+        <v>0.40711215138435364</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.759357452392578</v>
+        <v>2.651430130004883</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2.5061213970184326</v>
+        <v>2.374896287918091</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.6520941257476807</v>
+        <v>2.545673131942749</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.6560280323028564</v>
+        <v>2.586470127105713</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0.0</v>
@@ -737,56 +737,56 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>40.52783203125</v>
+        <v>40.414058685302734</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-65.95174407958984</v>
+        <v>-70.3280029296875</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1007.800048828125</v>
+        <v>1006.3299560546875</v>
       </c>
       <c r="M11" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O11" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
-      <c r="N11" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="P11" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>23.29939842224121</v>
+        <v>23.299999237060547</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>26.875303268432617</v>
+        <v>27.888835906982422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 17:50:00</t>
+          <t>2023-07-22 07:50:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.0022179351653903723</v>
+        <v>0.1368856430053711</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.3495616912841797</v>
+        <v>0.2880140244960785</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.8233659267425537</v>
+        <v>2.660536527633667</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.5512759685516357</v>
+        <v>2.387211799621582</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.69488525390625</v>
+        <v>2.558504104614258</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.7604544162750244</v>
+        <v>2.596669912338257</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0.0</v>
@@ -795,56 +795,56 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>40.5567741394043</v>
+        <v>40.42478561401367</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-64.97783660888672</v>
+        <v>-69.83645629882812</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1007.800048828125</v>
+        <v>1006.4125366210938</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>9.100000381469727</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.90000057220459</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.09909439086914</v>
+        <v>23.600000381469727</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>27.594911575317383</v>
+        <v>27.675111770629883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 19:50:00</t>
+          <t>2023-07-22 08:50:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.010821223258972168</v>
+        <v>0.1610940843820572</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.4270299971103668</v>
+        <v>0.2512856721878052</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2.790853261947632</v>
+        <v>2.742595911026001</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.5199313163757324</v>
+        <v>2.4462907314300537</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.6689658164978027</v>
+        <v>2.5940699577331543</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.7353014945983887</v>
+        <v>2.624932050704956</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0.0</v>
@@ -853,56 +853,56 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>40.58967208862305</v>
+        <v>40.433406829833984</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-63.98418045043945</v>
+        <v>-69.34919738769531</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1007.800048828125</v>
+        <v>1006.4950561523438</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>9.600000381469727</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>22.000804901123047</v>
+        <v>23.098499298095703</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>28.828426361083984</v>
+        <v>26.433822631835938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 21:50:00</t>
+          <t>2023-07-22 09:50:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.01942451111972332</v>
+        <v>0.1853025257587433</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.3712173402309418</v>
+        <v>0.29420045018196106</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.8546693325042725</v>
+        <v>2.7759623527526855</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.58012056350708</v>
+        <v>2.5185372829437256</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.7178027629852295</v>
+        <v>2.6532235145568848</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.7732787132263184</v>
+        <v>2.7171146869659424</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0.0</v>
@@ -911,56 +911,56 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>40.628849029541016</v>
+        <v>40.442344665527344</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-62.9781494140625</v>
+        <v>-68.85970306396484</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1008.7615966796875</v>
+        <v>1006.57763671875</v>
       </c>
       <c r="M14" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N14" s="2" t="n">
         <v>9.100000381469727</v>
       </c>
-      <c r="N14" s="2" t="n">
-        <v>9.5</v>
-      </c>
       <c r="O14" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>24.399999618530273</v>
+        <v>22.820072174072266</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>29.320423126220703</v>
+        <v>25.41761589050293</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2023-07-22 23:50:00</t>
+          <t>2023-07-22 10:50:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.028027798980474472</v>
+        <v>0.018340324983000755</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.5468387603759766</v>
+        <v>0.37788745760917664</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.8202922344207764</v>
+        <v>2.7780163288116455</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.4458398818969727</v>
+        <v>2.5033161640167236</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.6529130935668945</v>
+        <v>2.658837080001831</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.7434258460998535</v>
+        <v>2.69553804397583</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>0.0</v>
@@ -969,56 +969,56 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>40.66905975341797</v>
+        <v>40.45583724975586</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-61.984375</v>
+        <v>-68.37349700927734</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1010.84375</v>
+        <v>1007.005615234375</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>22.999197006225586</v>
+        <v>23.101001739501953</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>28.615419387817383</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 01:50:00</t>
+          <t>2023-07-22 11:50:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.036631084978580475</v>
+        <v>0.047382231801748276</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.428317666053772</v>
+        <v>0.33709976077079773</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.7489562034606934</v>
+        <v>2.7632832527160645</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.4275641441345215</v>
+        <v>2.4730265140533447</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.6545164585113525</v>
+        <v>2.6617586612701416</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.6835005283355713</v>
+        <v>2.6853926181793213</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0.0</v>
@@ -1027,56 +1027,56 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>40.816734313964844</v>
+        <v>40.47079849243164</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-60.982032775878906</v>
+        <v>-67.89988708496094</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1012.6813354492188</v>
+        <v>1007.5618896484375</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.900101661682129</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.0</v>
+        <v>9.099899291992188</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.700100898742676</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>22.700000762939453</v>
+        <v>22.230735778808594</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>28.90576934814453</v>
+        <v>23.668121337890625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 03:50:00</t>
+          <t>2023-07-22 12:50:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.045234374701976776</v>
+        <v>0.07642414420843124</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.3661009669303894</v>
+        <v>0.38243499398231506</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.748511791229248</v>
+        <v>2.7728705406188965</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.4410388469696045</v>
+        <v>2.5059545040130615</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.645707130432129</v>
+        <v>2.6726293563842773</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.708254337310791</v>
+        <v>2.6985325813293457</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>0.0</v>
@@ -1085,56 +1085,56 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>40.98107147216797</v>
+        <v>40.488338470458984</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-59.868431091308594</v>
+        <v>-67.4284896850586</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1013.366455078125</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>8.90000057220459</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>24.100000381469727</v>
+        <v>23.633312225341797</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>30.28490447998047</v>
+        <v>26.21230697631836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 05:50:00</t>
+          <t>2023-07-22 13:50:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.17970487475395203</v>
+        <v>0.10546605288982391</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.37087222933769226</v>
+        <v>0.4443778097629547</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2.7492501735687256</v>
+        <v>2.757434368133545</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.441354513168335</v>
+        <v>2.489407539367676</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.604254961013794</v>
+        <v>2.635348320007324</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.70133376121521</v>
+        <v>2.657017946243286</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0.0</v>
@@ -1143,56 +1143,56 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>41.13286209106445</v>
+        <v>40.49857711791992</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-58.835670471191406</v>
+        <v>-66.94312286376953</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1014.7339477539062</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>9.0</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N18" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O18" s="2" t="n">
         <v>9.199999809265137</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>9.300000190734863</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>9.699999809265137</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>22.899398803710938</v>
+        <v>23.249874114990234</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>28.753446578979492</v>
+        <v>25.627206802368164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 07:50:00</t>
+          <t>2023-07-22 14:50:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.020179256796836853</v>
+        <v>0.134507954120636</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.3126157224178314</v>
+        <v>0.3455573618412018</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2.759295701980591</v>
+        <v>2.7367148399353027</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.4593441486358643</v>
+        <v>2.4732794761657715</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.614680290222168</v>
+        <v>2.6308186054229736</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.7007925510406494</v>
+        <v>2.650094509124756</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0.0</v>
@@ -1201,56 +1201,56 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>41.27860641479492</v>
+        <v>40.513099670410156</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-57.84021759033203</v>
+        <v>-66.44844818115234</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1016.1013793945312</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>23.800302505493164</v>
+        <v>23.033422470092773</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>28.604602813720703</v>
+        <v>26.21706199645996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 09:50:00</t>
+          <t>2023-07-22 15:50:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.05949511006474495</v>
+        <v>0.16354987025260925</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.3870956599712372</v>
+        <v>0.3281726837158203</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.839370012283325</v>
+        <v>2.759357452392578</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.5179216861724854</v>
+        <v>2.5061213970184326</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.657928943634033</v>
+        <v>2.6520941257476807</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.779247283935547</v>
+        <v>2.6560280323028564</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0.0</v>
@@ -1259,56 +1259,56 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>41.41948318481445</v>
+        <v>40.52783203125</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-56.878353118896484</v>
+        <v>-65.95174407958984</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1017.4688720703125</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M20" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P20" s="2" t="n">
         <v>9.40000057220459</v>
       </c>
-      <c r="N20" s="2" t="n">
-        <v>9.199999809265137</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>9.699999809265137</v>
-      </c>
       <c r="Q20" s="2" t="n">
-        <v>22.5667781829834</v>
+        <v>23.29939842224121</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>29.388389587402344</v>
+        <v>26.875303268432617</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 11:50:00</t>
+          <t>2023-07-22 16:50:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.09881096333265305</v>
+        <v>0.19259177148342133</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.5549986958503723</v>
+        <v>0.38968899846076965</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2.684988021850586</v>
+        <v>2.7480807304382324</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.4069457054138184</v>
+        <v>2.4875645637512207</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.5625321865081787</v>
+        <v>2.6431171894073486</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6780292987823486</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>0.0</v>
@@ -1317,56 +1317,56 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>41.552913665771484</v>
+        <v>40.542503356933594</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-55.9627685546875</v>
+        <v>-65.46095275878906</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1018.8363647460938</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.0</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.700000286102295</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>20.549882888793945</v>
+        <v>23.09950065612793</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>31.643014907836914</v>
+        <v>27.95857810974121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 13:50:00</t>
+          <t>2023-07-22 17:50:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.13812682032585144</v>
+        <v>0.0022179351653903723</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.47617557644844055</v>
+        <v>0.3495616912841797</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2.8126072883605957</v>
+        <v>2.8233659267425537</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.5331623554229736</v>
+        <v>2.5512759685516357</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.7410647869110107</v>
+        <v>2.69488525390625</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.756751775741577</v>
+        <v>2.7604544162750244</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0.0</v>
@@ -1375,56 +1375,56 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>41.682518005371094</v>
+        <v>40.5567741394043</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-55.074520111083984</v>
+        <v>-64.97783660888672</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1020.2037963867188</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>9.100000381469727</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>22.600000381469727</v>
+        <v>22.09909439086914</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>31.302478790283203</v>
+        <v>27.594911575317383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 15:50:00</t>
+          <t>2023-07-22 18:50:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.17744266986846924</v>
+        <v>0.006519578862935305</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.4980180859565735</v>
+        <v>0.4011363685131073</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.767167568206787</v>
+        <v>2.7742180824279785</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.455847978591919</v>
+        <v>2.492034435272217</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.6182315349578857</v>
+        <v>2.6484971046447754</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.6881933212280273</v>
+        <v>2.7108190059661865</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>0.0</v>
@@ -1433,56 +1433,56 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>41.82645034790039</v>
+        <v>40.57148361206055</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-54.08421325683594</v>
+        <v>-64.48355102539062</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1021.4111938476562</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>22.199398040771484</v>
+        <v>22.999799728393555</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>32.400001525878906</v>
+        <v>27.528076171875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 17:50:00</t>
+          <t>2023-07-22 19:50:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.012140811420977116</v>
+        <v>0.010821223258972168</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.47092512249946594</v>
+        <v>0.4270299971103668</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2.7459959983825684</v>
+        <v>2.790853261947632</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.477750301361084</v>
+        <v>2.5199313163757324</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.6162397861480713</v>
+        <v>2.6689658164978027</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.685229539871216</v>
+        <v>2.7353014945983887</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0.0</v>
@@ -1491,56 +1491,56 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>41.97187423706055</v>
+        <v>40.58967208862305</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-53.081600189208984</v>
+        <v>-63.98418045043945</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1022.3954467773438</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>9.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>22.84939956665039</v>
+        <v>22.000804901123047</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>31.399999618530273</v>
+        <v>28.828426361083984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 19:50:00</t>
+          <t>2023-07-22 20:50:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.06633664667606354</v>
+        <v>0.01512286625802517</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.4700727164745331</v>
+        <v>0.3832632899284363</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2.763551950454712</v>
+        <v>2.7764499187469482</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.4787206649780273</v>
+        <v>2.5017459392547607</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.6278185844421387</v>
+        <v>2.65718674659729</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.6998860836029053</v>
+        <v>2.7180233001708984</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0.0</v>
@@ -1549,56 +1549,56 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>42.118797302246094</v>
+        <v>40.60947036743164</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-52.06494903564453</v>
+        <v>-63.47749710083008</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1023.3797607421875</v>
+        <v>1007.800048828125</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>9.100000381469727</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>23.0</v>
+        <v>24.799392700195312</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>31.4161434173584</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 21:50:00</t>
+          <t>2023-07-22 21:50:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.12053247541189194</v>
+        <v>0.01942451111972332</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.47047778964042664</v>
+        <v>0.3712173402309418</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2.7652671337127686</v>
+        <v>2.8546693325042725</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.459146499633789</v>
+        <v>2.58012056350708</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.6261649131774902</v>
+        <v>2.7178027629852295</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.6992969512939453</v>
+        <v>2.7732787132263184</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0.0</v>
@@ -1607,56 +1607,56 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>42.28557205200195</v>
+        <v>40.628849029541016</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-51.07491683959961</v>
+        <v>-62.9781494140625</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1024.364013671875</v>
+        <v>1008.7615966796875</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>22.299392700195312</v>
+        <v>24.399999618530273</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>26.607507705688477</v>
+        <v>29.320423126220703</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2023-07-23 23:50:00</t>
+          <t>2023-07-22 22:50:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.17472830414772034</v>
+        <v>0.02372615411877632</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.48513761162757874</v>
+        <v>0.5476797819137573</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2.7583513259887695</v>
+        <v>2.9155194759368896</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.4593825340270996</v>
+        <v>2.546745538711548</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.637629985809326</v>
+        <v>2.7575879096984863</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.692487955093384</v>
+        <v>2.8695333003997803</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0.0</v>
@@ -1665,56 +1665,56 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>42.46458435058594</v>
+        <v>40.64803695678711</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-50.10948181152344</v>
+        <v>-62.48289489746094</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1025.1822509765625</v>
+        <v>1009.8026733398438</v>
       </c>
       <c r="M27" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N27" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N27" s="2" t="n">
-        <v>9.40000057220459</v>
-      </c>
       <c r="O27" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>22.49850082397461</v>
+        <v>23.499698638916016</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>24.411418914794922</v>
+        <v>28.74169921875</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 01:50:00</t>
+          <t>2023-07-22 23:50:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.027383415028452873</v>
+        <v>0.028027798980474472</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.32189762592315674</v>
+        <v>0.5468387603759766</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2.698183059692383</v>
+        <v>2.8202922344207764</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2.4284934997558594</v>
+        <v>2.4458398818969727</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.575695037841797</v>
+        <v>2.6529130935668945</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.6283280849456787</v>
+        <v>2.7434258460998535</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0.0</v>
@@ -1723,56 +1723,56 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>42.738712310791016</v>
+        <v>40.66905975341797</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-49.198875427246094</v>
+        <v>-61.984375</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1025.0640869140625</v>
+        <v>1010.84375</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>22.500499725341797</v>
+        <v>22.999197006225586</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>23.695974349975586</v>
+        <v>28.615419387817383</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 03:50:00</t>
+          <t>2023-07-23 00:50:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.09409727156162262</v>
+        <v>0.032329440116882324</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.47189879417419434</v>
+        <v>0.3945532739162445</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2.6857495307922363</v>
+        <v>2.821070432662964</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2.3879024982452393</v>
+        <v>2.46638822555542</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.5555248260498047</v>
+        <v>2.686005115509033</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.628178358078003</v>
+        <v>2.788379430770874</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0.0</v>
@@ -1781,56 +1781,56 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>43.100975036621094</v>
+        <v>40.74176788330078</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-48.26948928833008</v>
+        <v>-61.491554260253906</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1024.9459228515625</v>
+        <v>1011.8848266601562</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O29" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.5</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>21.799999237060547</v>
+        <v>23.700000762939453</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>19.176355361938477</v>
+        <v>28.47140884399414</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 05:50:00</t>
+          <t>2023-07-23 01:50:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.16081112623214722</v>
+        <v>0.036631084978580475</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.4852912425994873</v>
+        <v>0.428317666053772</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2.6878929138183594</v>
+        <v>2.7489562034606934</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2.4052391052246094</v>
+        <v>2.4275641441345215</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.5759317874908447</v>
+        <v>2.6545164585113525</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.616591691970825</v>
+        <v>2.6835005283355713</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0.0</v>
@@ -1839,56 +1839,56 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>43.44906234741211</v>
+        <v>40.816734313964844</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-47.28618240356445</v>
+        <v>-60.982032775878906</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1024.82763671875</v>
+        <v>1012.6813354492188</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="O30" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>23.950450897216797</v>
+        <v>22.700000762939453</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>25.41254234313965</v>
+        <v>28.90576934814453</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 07:50:00</t>
+          <t>2023-07-23 02:50:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>9.635479655116796E-4</v>
+        <v>0.040932729840278625</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.4289776682853699</v>
+        <v>0.3292462229728699</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2.7095813751220703</v>
+        <v>2.7373764514923096</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.4349420070648193</v>
+        <v>2.4462239742279053</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.598846912384033</v>
+        <v>2.626920461654663</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.6339101791381836</v>
+        <v>2.678978443145752</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0.0</v>
@@ -1897,56 +1897,56 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>43.80561447143555</v>
+        <v>40.89834976196289</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-46.36949157714844</v>
+        <v>-60.431617736816406</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1024.70947265625</v>
+        <v>1012.9413452148438</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O31" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>23.300100326538086</v>
+        <v>22.9997501373291</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>25.724573135375977</v>
+        <v>28.417613983154297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 09:50:00</t>
+          <t>2023-07-23 03:50:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.010535496287047863</v>
+        <v>0.045234374701976776</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.4657602906227112</v>
+        <v>0.3661009669303894</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2.7382726669311523</v>
+        <v>2.748511791229248</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.472320556640625</v>
+        <v>2.4410388469696045</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.610276937484741</v>
+        <v>2.645707130432129</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.658417224884033</v>
+        <v>2.708254337310791</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.0</v>
@@ -1955,56 +1955,56 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44.134765625</v>
+        <v>40.98107147216797</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-45.434181213378906</v>
+        <v>-59.868431091308594</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1024.59130859375</v>
+        <v>1013.366455078125</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O32" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>23.09980010986328</v>
+        <v>24.100000381469727</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>26.237886428833008</v>
+        <v>30.28490447998047</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 11:50:00</t>
+          <t>2023-07-23 04:50:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.020107444375753403</v>
+        <v>0.04953601583838463</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.5216160416603088</v>
+        <v>0.3975735306739807</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2.7692489624023438</v>
+        <v>2.72861385345459</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.503241539001465</v>
+        <v>2.419844150543213</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.6576685905456543</v>
+        <v>2.5803475379943848</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.70271897315979</v>
+        <v>2.661229372024536</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0.0</v>
@@ -2013,56 +2013,56 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>44.45655822753906</v>
+        <v>41.06035232543945</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-44.48839569091797</v>
+        <v>-59.329833984375</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1024.47314453125</v>
+        <v>1014.0501708984375</v>
       </c>
       <c r="M33" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N33" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N33" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O33" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>23.40009880065918</v>
+        <v>22.400251388549805</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>27.09918212890625</v>
+        <v>29.323720932006836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 13:50:00</t>
+          <t>2023-07-23 05:50:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.029679393395781517</v>
+        <v>0.17970487475395203</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.3448186218738556</v>
+        <v>0.37087222933769226</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2.758286714553833</v>
+        <v>2.7492501735687256</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2.4813618659973145</v>
+        <v>2.441354513168335</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.6464903354644775</v>
+        <v>2.604254961013794</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.7067620754241943</v>
+        <v>2.70133376121521</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0.0</v>
@@ -2071,56 +2071,56 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>44.76786422729492</v>
+        <v>41.13286209106445</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-43.54024124145508</v>
+        <v>-58.835670471191406</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1024.3548583984375</v>
+        <v>1014.7339477539062</v>
       </c>
       <c r="M34" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N34" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N34" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O34" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>23.5</v>
+        <v>22.899398803710938</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>29.61688804626465</v>
+        <v>28.753446578979492</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 15:50:00</t>
+          <t>2023-07-23 06:50:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.031030332669615746</v>
+        <v>5.213292897678912E-4</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.45915454626083374</v>
+        <v>0.18114164471626282</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2.7289540767669678</v>
+        <v>2.760512113571167</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2.46718692779541</v>
+        <v>2.447032928466797</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.6351029872894287</v>
+        <v>2.601306676864624</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.6859242916107178</v>
+        <v>2.7038164138793945</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0.0</v>
@@ -2129,56 +2129,56 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>45.06835174560547</v>
+        <v>41.20552444458008</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-42.59102249145508</v>
+        <v>-58.340999603271484</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1023.8616943359375</v>
+        <v>1015.4176635742188</v>
       </c>
       <c r="M35" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N35" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N35" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O35" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>23.366933822631836</v>
+        <v>23.5</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>27.756568908691406</v>
+        <v>28.926151275634766</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 17:50:00</t>
+          <t>2023-07-23 07:50:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.0717608854174614</v>
+        <v>0.020179256796836853</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.42023152112960815</v>
+        <v>0.3126157224178314</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2.738227367401123</v>
+        <v>2.759295701980591</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2.4829258918762207</v>
+        <v>2.4593441486358643</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.6292777061462402</v>
+        <v>2.614680290222168</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.681509017944336</v>
+        <v>2.7007925510406494</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0.0</v>
@@ -2187,56 +2187,56 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>45.36009216308594</v>
+        <v>41.27860641479492</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-41.633968353271484</v>
+        <v>-57.84021759033203</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1023.0435791015625</v>
+        <v>1016.1013793945312</v>
       </c>
       <c r="M36" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="N36" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N36" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O36" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>23.58882713317871</v>
+        <v>23.800302505493164</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>27.150352478027344</v>
+        <v>28.604602813720703</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 19:50:00</t>
+          <t>2023-07-23 08:50:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.1124914363026619</v>
+        <v>0.03983718156814575</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.45961812138557434</v>
+        <v>0.43677234649658203</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2.7390236854553223</v>
+        <v>2.809535026550293</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2.466041326522827</v>
+        <v>2.5032050609588623</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.638977289199829</v>
+        <v>2.6527810096740723</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.6810522079467773</v>
+        <v>2.763322353363037</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0.0</v>
@@ -2245,56 +2245,56 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>45.64356231689453</v>
+        <v>41.34947967529297</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-40.667911529541016</v>
+        <v>-57.35755920410156</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1022.2254638671875</v>
+        <v>1016.78515625</v>
       </c>
       <c r="M37" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N37" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N37" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O37" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>23.260229110717773</v>
+        <v>24.233556747436523</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>28.140586853027344</v>
+        <v>29.017690658569336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 21:50:00</t>
+          <t>2023-07-23 09:50:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.153221994638443</v>
+        <v>0.05949511006474495</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.4365837574005127</v>
+        <v>0.3870956599712372</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2.7402875423431396</v>
+        <v>2.839370012283325</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2.4643638134002686</v>
+        <v>2.5179216861724854</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.621905565261841</v>
+        <v>2.657928943634033</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.6678500175476074</v>
+        <v>2.779247283935547</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0.0</v>
@@ -2303,56 +2303,56 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>45.91267013549805</v>
+        <v>41.41948318481445</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-39.71467971801758</v>
+        <v>-56.878353118896484</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1021.4072875976562</v>
+        <v>1017.4688720703125</v>
       </c>
       <c r="M38" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N38" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N38" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O38" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>22.09929847717285</v>
+        <v>22.5667781829834</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>24.1500244140625</v>
+        <v>29.388389587402344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2023-07-24 23:50:00</t>
+          <t>2023-07-23 10:50:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.1939525455236435</v>
+        <v>0.07915303856134415</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.4787787199020386</v>
+        <v>0.399736613035202</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2.698211908340454</v>
+        <v>2.296635627746582</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2.4347503185272217</v>
+        <v>2.034226417541504</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.6079652309417725</v>
+        <v>2.1299774646759033</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.642742156982422</v>
+        <v>2.238548755645752</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0.0</v>
@@ -2361,56 +2361,56 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>46.177188873291016</v>
+        <v>41.491600036621094</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-38.73909378051758</v>
+        <v>-56.38419723510742</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1020.5891723632812</v>
+        <v>1018.152587890625</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>22.86654281616211</v>
+        <v>21.632787704467773</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>23.802526473999023</v>
+        <v>29.7485408782959</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 01:50:00</t>
+          <t>2023-07-23 11:50:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.3719598650932312</v>
+        <v>0.09881096333265305</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.11672364175319672</v>
+        <v>0.5549986958503723</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.67559814453125</v>
+        <v>2.684988021850586</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.411935806274414</v>
+        <v>2.4069457054138184</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.5808374881744385</v>
+        <v>2.5625321865081787</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.623441696166992</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0.0</v>
@@ -2419,56 +2419,56 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>46.438087463378906</v>
+        <v>41.552913665771484</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-37.73524856567383</v>
+        <v>-55.9627685546875</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1019.7710571289062</v>
+        <v>1018.8363647460938</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>5.700000286102295</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>23.17987823486328</v>
+        <v>20.549882888793945</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>23.337949752807617</v>
+        <v>31.643014907836914</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 03:50:00</t>
+          <t>2023-07-23 12:50:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.013386215083301067</v>
+        <v>0.11846888810396194</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.30582037568092346</v>
+        <v>0.5436457991600037</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2.668384075164795</v>
+        <v>2.8075826168060303</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2.404841899871826</v>
+        <v>2.540210008621216</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.567302703857422</v>
+        <v>2.63570237159729</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.609339952468872</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0.0</v>
@@ -2477,56 +2477,56 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>46.694644927978516</v>
+        <v>41.615135192871094</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-36.703426361083984</v>
+        <v>-55.53816604614258</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1018.9396362304688</v>
+        <v>1019.5200805664062</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>22.248746871948242</v>
+        <v>20.200000762939453</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>22.924190521240234</v>
+        <v>32.19544219970703</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 05:50:00</t>
+          <t>2023-07-23 13:50:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.06945458054542542</v>
+        <v>0.13812682032585144</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.3119923770427704</v>
+        <v>0.47617557644844055</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2.6771998405456543</v>
+        <v>2.8126072883605957</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2.4200944900512695</v>
+        <v>2.5331623554229736</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.575885057449341</v>
+        <v>2.7410647869110107</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.611354351043701</v>
+        <v>2.756751775741577</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0.0</v>
@@ -2535,56 +2535,56 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>46.94116973876953</v>
+        <v>41.682518005371094</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-35.66396713256836</v>
+        <v>-55.074520111083984</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1017.890380859375</v>
+        <v>1020.2037963867188</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>22.44297218322754</v>
+        <v>22.600000381469727</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>22.85004425048828</v>
+        <v>31.302478790283203</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 07:50:00</t>
+          <t>2023-07-23 14:50:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.1255229413509369</v>
+        <v>0.15778474509716034</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.4520036578178406</v>
+        <v>0.40993043780326843</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2.708273410797119</v>
+        <v>2.747950315475464</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2.4371163845062256</v>
+        <v>2.484097957611084</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.6087236404418945</v>
+        <v>2.6213762760162354</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.6522789001464844</v>
+        <v>2.6740221977233887</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0.0</v>
@@ -2593,56 +2593,56 @@
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>47.17667007446289</v>
+        <v>41.75450897216797</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-34.62298583984375</v>
+        <v>-54.578857421875</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1016.841064453125</v>
+        <v>1020.8875732421875</v>
       </c>
       <c r="M43" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N43" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
-      <c r="N43" s="2" t="n">
-        <v>9.300000190734863</v>
-      </c>
       <c r="O43" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>23.200267791748047</v>
+        <v>22.79979705810547</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>23.245269775390625</v>
+        <v>32.599998474121094</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 09:50:00</t>
+          <t>2023-07-23 15:50:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.18159131705760956</v>
+        <v>0.17744266986846924</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.5249163508415222</v>
+        <v>0.4980180859565735</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2.7868812084198</v>
+        <v>2.767167568206787</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2.510895013809204</v>
+        <v>2.455847978591919</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.6846752166748047</v>
+        <v>2.6182315349578857</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2.7345290184020996</v>
+        <v>2.6881933212280273</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0.0</v>
@@ -2651,56 +2651,56 @@
         <v>0.0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>47.40514373779297</v>
+        <v>41.82645034790039</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-33.5595817565918</v>
+        <v>-54.08421325683594</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1015.791748046875</v>
+        <v>1021.4111938476562</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>10.0</v>
+        <v>9.5</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>22.700000762939453</v>
+        <v>22.199398040771484</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>24.347002029418945</v>
+        <v>32.400001525878906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 11:50:00</t>
+          <t>2023-07-23 16:50:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.19866587221622467</v>
+        <v>0.19710059463977814</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.29334670305252075</v>
+        <v>0.396406352519989</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2.81563401222229</v>
+        <v>2.789088726043701</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.547004461288452</v>
+        <v>2.473297119140625</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.7030465602874756</v>
+        <v>2.631736993789673</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>2.7557871341705322</v>
+        <v>2.6859047412872314</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0.0</v>
@@ -2709,56 +2709,56 @@
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>47.62843322753906</v>
+        <v>41.89802169799805</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-32.464134216308594</v>
+        <v>-53.58985900878906</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1014.742431640625</v>
+        <v>1021.9033203125</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>10.0</v>
+        <v>9.5</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>24.166667938232422</v>
+        <v>22.09979820251465</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>24.988492965698242</v>
+        <v>31.663955688476562</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 13:50:00</t>
+          <t>2023-07-23 17:50:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.04397018998861313</v>
+        <v>0.012140811420977116</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.35438624024391174</v>
+        <v>0.47092512249946594</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2.8175318241119385</v>
+        <v>2.7459959983825684</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2.547687292098999</v>
+        <v>2.477750301361084</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.7115283012390137</v>
+        <v>2.6162397861480713</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2.754340648651123</v>
+        <v>2.685229539871216</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0.0</v>
@@ -2767,56 +2767,56 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>47.838401794433594</v>
+        <v>41.97187423706055</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-31.374629974365234</v>
+        <v>-53.081600189208984</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1013.6931762695312</v>
+        <v>1022.3954467773438</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>10.0</v>
+        <v>9.5</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>23.30120277404785</v>
+        <v>22.84939956665039</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>27.075178146362305</v>
+        <v>31.399999618530273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 15:50:00</t>
+          <t>2023-07-23 18:50:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.0976492166519165</v>
+        <v>0.03923872858285904</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.4919891953468323</v>
+        <v>0.447262167930603</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2.440217971801758</v>
+        <v>2.7411420345306396</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2.1800613403320312</v>
+        <v>2.446472406387329</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.0</v>
+        <v>2.603766918182373</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2.415332078933716</v>
+        <v>2.6747450828552246</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0.0</v>
@@ -2825,56 +2825,56 @@
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>48.026832580566406</v>
+        <v>42.04553985595703</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-30.33876609802246</v>
+        <v>-52.57347869873047</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1012.6438598632812</v>
+        <v>1022.8875732421875</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>9.5</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>5.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>5.200000286102295</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>19.09969711303711</v>
+        <v>22.96654510498047</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>24.75971794128418</v>
+        <v>31.828781127929688</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 17:50:00</t>
+          <t>2023-07-23 19:50:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.15132823586463928</v>
+        <v>0.06633664667606354</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.47804486751556396</v>
+        <v>0.4700727164745331</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2.7846715450286865</v>
+        <v>2.763551950454712</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.4741461277008057</v>
+        <v>2.4787206649780273</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.650085926055908</v>
+        <v>2.6278185844421387</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2.7338502407073975</v>
+        <v>2.6998860836029053</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0.0</v>
@@ -2883,56 +2883,56 @@
         <v>0.0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>48.20767593383789</v>
+        <v>42.118797302246094</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-29.283203125</v>
+        <v>-52.06494903564453</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1011.5945434570312</v>
+        <v>1023.3797607421875</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>9.0</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>22.699800491333008</v>
+        <v>23.0</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>23.354434967041016</v>
+        <v>31.4161434173584</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 19:50:00</t>
+          <t>2023-07-23 20:50:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.877396821975708</v>
+        <v>0.09343456476926804</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.5490138530731201</v>
+        <v>0.47865432500839233</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2.7568836212158203</v>
+        <v>2.7674238681793213</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.4451487064361572</v>
+        <v>2.4766061305999756</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.612445116043091</v>
+        <v>2.626919984817505</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2.675851345062256</v>
+        <v>2.685633420944214</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0.0</v>
@@ -2941,56 +2941,56 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>48.38170623779297</v>
+        <v>42.19506072998047</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-28.203672409057617</v>
+        <v>-51.56434631347656</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1010.5452270507812</v>
+        <v>1023.8718872070312</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>9.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>23.714170455932617</v>
+        <v>22.749814987182617</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>22.570812225341797</v>
+        <v>29.547014236450195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 21:50:00</t>
+          <t>2023-07-23 21:50:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.17875386774539948</v>
+        <v>0.12053247541189194</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.32541629672050476</v>
+        <v>0.47047778964042664</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2.7627527713775635</v>
+        <v>2.7652671337127686</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.4381258487701416</v>
+        <v>2.459146499633789</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.620175838470459</v>
+        <v>2.6261649131774902</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>2.672182321548462</v>
+        <v>2.6992969512939453</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0.0</v>
@@ -2999,56 +2999,56 @@
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>48.547420501708984</v>
+        <v>42.28557205200195</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-27.103797912597656</v>
+        <v>-51.07491683959961</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1009.4959106445312</v>
+        <v>1024.364013671875</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>9.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>22.801069259643555</v>
+        <v>22.299392700195312</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>22.0</v>
+        <v>26.607507705688477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2023-07-25 23:50:00</t>
+          <t>2023-07-23 22:50:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.034819312393665314</v>
+        <v>0.14763039350509644</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.37774190306663513</v>
+        <v>0.47656679153442383</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2.7138030529022217</v>
+        <v>2.74995493888855</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2.4027884006500244</v>
+        <v>2.4723050594329834</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2.585214853286743</v>
+        <v>2.6226515769958496</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>2.629575729370117</v>
+        <v>2.6753647327423096</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0.0</v>
@@ -3057,56 +3057,56 @@
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>48.702205657958984</v>
+        <v>42.37525177001953</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-26.000890731811523</v>
+        <v>-50.59109878540039</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1008.4876098632812</v>
+        <v>1024.8560791015625</v>
       </c>
       <c r="M51" s="2" t="n">
         <v>9.5</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>23.599849700927734</v>
+        <v>22.440223693847656</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>21.510793685913086</v>
+        <v>23.985353469848633</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 01:50:00</t>
+          <t>2023-07-23 23:50:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.07050379365682602</v>
+        <v>0.17472830414772034</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.41990193724632263</v>
+        <v>0.48513761162757874</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2.6882596015930176</v>
+        <v>2.7583513259887695</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2.3991200923919678</v>
+        <v>2.4593825340270996</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2.558641195297241</v>
+        <v>2.637629985809326</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2.6259472370147705</v>
+        <v>2.692487955093384</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0.0</v>
@@ -3115,56 +3115,56 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>48.844791412353516</v>
+        <v>42.46458435058594</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-24.901302337646484</v>
+        <v>-50.10948181152344</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1007.5599975585938</v>
+        <v>1025.1822509765625</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>9.5</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>22.4993953704834</v>
+        <v>22.49850082397461</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>20.657590866088867</v>
+        <v>24.411418914794922</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 03:50:00</t>
+          <t>2023-07-24 00:50:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.10618827491998672</v>
+        <v>0.20182622969150543</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.3249678313732147</v>
+        <v>0.49379590153694153</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2.8839755058288574</v>
+        <v>2.7521018981933594</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2.5967164039611816</v>
+        <v>2.457688331604004</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2.7740864753723145</v>
+        <v>2.6271603107452393</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2.7906746864318848</v>
+        <v>2.666377067565918</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0.0</v>
@@ -3173,56 +3173,56 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>48.96764373779297</v>
+        <v>42.56167984008789</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-23.777910232543945</v>
+        <v>-49.64111328125</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1006.6323852539062</v>
+        <v>1025.1231689453125</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>10.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>10.699999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>23.399700164794922</v>
+        <v>21.600000381469727</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>21.17473602294922</v>
+        <v>24.278011322021484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 05:50:00</t>
+          <t>2023-07-24 01:50:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.14187274873256683</v>
+        <v>0.027383415028452873</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.2974821925163269</v>
+        <v>0.32189762592315674</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2.819406747817993</v>
+        <v>2.698183059692383</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.532789707183838</v>
+        <v>2.4284934997558594</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2.7232420444488525</v>
+        <v>2.575695037841797</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2.772883415222168</v>
+        <v>2.6283280849456787</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0.0</v>
@@ -3231,56 +3231,56 @@
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>49.103458404541016</v>
+        <v>42.738712310791016</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-22.636991500854492</v>
+        <v>-49.198875427246094</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1005.7047119140625</v>
+        <v>1025.0640869140625</v>
       </c>
       <c r="M54" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>10.40000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>10.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>24.167760848999023</v>
+        <v>22.500499725341797</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>21.12053680419922</v>
+        <v>23.695974349975586</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 07:50:00</t>
+          <t>2023-07-24 02:50:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.17755722999572754</v>
+        <v>0.06074034422636032</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.3728266954421997</v>
+        <v>0.4261074662208557</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2.840590000152588</v>
+        <v>2.6527106761932373</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2.547360897064209</v>
+        <v>2.4002938270568848</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2.74041748046875</v>
+        <v>2.561016321182251</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>2.781336784362793</v>
+        <v>2.5907669067382812</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0.0</v>
@@ -3289,56 +3289,56 @@
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>49.215576171875</v>
+        <v>42.91844940185547</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-21.49616241455078</v>
+        <v>-48.74143981933594</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1004.9942016601562</v>
+        <v>1025.0050048828125</v>
       </c>
       <c r="M55" s="2" t="n">
         <v>9.199999809265137</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>10.40000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>10.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>22.80040168762207</v>
+        <v>22.3502254486084</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>21.01875877380371</v>
+        <v>20.523237228393555</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 09:50:00</t>
+          <t>2023-07-24 03:50:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.009777605533599854</v>
+        <v>0.09409727156162262</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.4965488016605377</v>
+        <v>0.47189879417419434</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2.3091955184936523</v>
+        <v>2.6857495307922363</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2.0669212341308594</v>
+        <v>2.3879024982452393</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>2.11365008354187</v>
+        <v>2.5555248260498047</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>0.0</v>
+        <v>2.628178358078003</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0.0</v>
@@ -3347,56 +3347,56 @@
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>49.301944732666016</v>
+        <v>43.100975036621094</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-20.5267333984375</v>
+        <v>-48.26948928833008</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1004.9700317382812</v>
+        <v>1024.9459228515625</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>5.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>5.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>4.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>19.04030418395996</v>
+        <v>21.799999237060547</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>21.367464065551758</v>
+        <v>19.176355361938477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 11:50:00</t>
+          <t>2023-07-24 04:50:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.14281289279460907</v>
+        <v>0.12745420634746552</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.5459766387939453</v>
+        <v>0.5340104103088379</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2.6454694271087646</v>
+        <v>2.666731834411621</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2.3654415607452393</v>
+        <v>2.3549046516418457</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2.500084400177002</v>
+        <v>2.531841278076172</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5967466831207275</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0.0</v>
@@ -3405,56 +3405,56 @@
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>49.37890625</v>
+        <v>43.27571487426758</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-19.574745178222656</v>
+        <v>-47.76660919189453</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1004.9458618164062</v>
+        <v>1024.8868408203125</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>21.05008888244629</v>
+        <v>22.849472045898438</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>25.1702823638916</v>
+        <v>20.26413917541504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 13:50:00</t>
+          <t>2023-07-24 05:50:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.04289749637246132</v>
+        <v>0.16081112623214722</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.4407898485660553</v>
+        <v>0.4852912425994873</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2.7628960609436035</v>
+        <v>2.6878929138183594</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2.43042254447937</v>
+        <v>2.4052391052246094</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>2.5956578254699707</v>
+        <v>2.5759317874908447</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>0.0</v>
+        <v>2.616591691970825</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0.0</v>
@@ -3463,56 +3463,56 @@
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>49.45145797729492</v>
+        <v>43.44906234741211</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-18.560667037963867</v>
+        <v>-47.28618240356445</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1004.9216918945312</v>
+        <v>1024.82763671875</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>20.799999237060547</v>
+        <v>23.950450897216797</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>24.221912384033203</v>
+        <v>25.41254234313965</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 15:50:00</t>
+          <t>2023-07-24 06:50:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.13338088989257812</v>
+        <v>0.1941680610179901</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.473022997379303</v>
+        <v>0.3519892692565918</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2.764413356781006</v>
+        <v>2.7019355297088623</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2.4310600757598877</v>
+        <v>2.431558847427368</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>2.594437837600708</v>
+        <v>2.586723804473877</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6246118545532227</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0.0</v>
@@ -3521,56 +3521,56 @@
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>49.516014099121094</v>
+        <v>43.63154220581055</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-17.536577224731445</v>
+        <v>-46.83103942871094</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1004.8974609375</v>
+        <v>1024.7685546875</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>20.48880958557129</v>
+        <v>23.239879608154297</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>24.922794342041016</v>
+        <v>25.499675750732422</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 17:50:00</t>
+          <t>2023-07-24 07:50:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.006262877490371466</v>
+        <v>9.635479655116796E-4</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.4110335111618042</v>
+        <v>0.4289776682853699</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2.7748196125030518</v>
+        <v>2.7095813751220703</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.412860155105591</v>
+        <v>2.4349420070648193</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2.598451852798462</v>
+        <v>2.598846912384033</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6339101791381836</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0.0</v>
@@ -3579,56 +3579,56 @@
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>49.57059097290039</v>
+        <v>43.80561447143555</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-16.521442413330078</v>
+        <v>-46.36949157714844</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1004.873291015625</v>
+        <v>1024.70947265625</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>20.539663314819336</v>
+        <v>23.300100326538086</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>22.857290267944336</v>
+        <v>25.724573135375977</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 19:50:00</t>
+          <t>2023-07-24 08:50:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.04970035329461098</v>
+        <v>0.005749522242695093</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.49483397603034973</v>
+        <v>0.45528632402420044</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2.763159990310669</v>
+        <v>2.721261501312256</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2.4076764583587646</v>
+        <v>2.4468092918395996</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2.6031479835510254</v>
+        <v>2.6094794273376465</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>0.0</v>
+        <v>2.651931047439575</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0.0</v>
@@ -3637,56 +3637,56 @@
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>49.61648941040039</v>
+        <v>43.97079086303711</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-15.499387741088867</v>
+        <v>-45.90434646606445</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1004.84912109375</v>
+        <v>1024.650390625</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>20.699697494506836</v>
+        <v>22.899799346923828</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>20.334714889526367</v>
+        <v>25.974111557006836</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 21:50:00</t>
+          <t>2023-07-24 09:50:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.09313783049583435</v>
+        <v>0.010535496287047863</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.4458366334438324</v>
+        <v>0.4657602906227112</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2.743978500366211</v>
+        <v>2.7382726669311523</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2.379777431488037</v>
+        <v>2.472320556640625</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>2.5778398513793945</v>
+        <v>2.610276937484741</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>0.0</v>
+        <v>2.658417224884033</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0.0</v>
@@ -3695,56 +3695,56 @@
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>49.6536865234375</v>
+        <v>44.134765625</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-14.462615966796875</v>
+        <v>-45.434181213378906</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1004.824951171875</v>
+        <v>1024.59130859375</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>20.250303268432617</v>
+        <v>23.09980010986328</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>20.0</v>
+        <v>26.237886428833008</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2023-07-26 23:50:00</t>
+          <t>2023-07-24 10:50:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.13657531142234802</v>
+        <v>0.01532147079706192</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.34947237372398376</v>
+        <v>0.4517527222633362</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2.701436996459961</v>
+        <v>2.7517871856689453</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2.345479965209961</v>
+        <v>2.4894440174102783</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>2.544358015060425</v>
+        <v>2.630446195602417</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6709144115448</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0.0</v>
@@ -3753,56 +3753,56 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>49.68217086791992</v>
+        <v>44.29884338378906</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-13.403825759887695</v>
+        <v>-44.95703887939453</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1004.80078125</v>
+        <v>1024.5322265625</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>20.5</v>
+        <v>23.349761962890625</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>20.0</v>
+        <v>26.48166847229004</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 01:50:00</t>
+          <t>2023-07-24 11:50:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.1800127774477005</v>
+        <v>0.020107444375753403</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.46656858921051025</v>
+        <v>0.5216160416603088</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2.727627992630005</v>
+        <v>2.7692489624023438</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2.3554012775421143</v>
+        <v>2.503241539001465</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.554201602935791</v>
+        <v>2.6576685905456543</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>0.0</v>
+        <v>2.70271897315979</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0.0</v>
@@ -3811,56 +3811,56 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>49.70073318481445</v>
+        <v>44.45655822753906</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-12.366779327392578</v>
+        <v>-44.48839569091797</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1004.9547729492188</v>
+        <v>1024.47314453125</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>21.00119972229004</v>
+        <v>23.40009880065918</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>19.922584533691406</v>
+        <v>27.09918212890625</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 03:50:00</t>
+          <t>2023-07-24 12:50:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.016237810254096985</v>
+        <v>0.024893417954444885</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.36835092306137085</v>
+        <v>0.44400554895401</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2.702180862426758</v>
+        <v>2.7547528743743896</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2.3425633907318115</v>
+        <v>2.4843032360076904</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>2.5413877964019775</v>
+        <v>2.6500566005706787</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>0.0</v>
+        <v>2.705169916152954</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>0.0</v>
@@ -3869,56 +3869,56 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>49.70987319946289</v>
+        <v>44.61312484741211</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-11.33161735534668</v>
+        <v>-44.01521682739258</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1005.1143798828125</v>
+        <v>1024.4140625</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>20.599599838256836</v>
+        <v>22.4332218170166</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>20.199485778808594</v>
+        <v>29.97260093688965</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 05:50:00</t>
+          <t>2023-07-24 13:50:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.061240460723638535</v>
+        <v>0.029679393395781517</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.5017463564872742</v>
+        <v>0.3448186218738556</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>2.71951961517334</v>
+        <v>2.758286714553833</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2.369020938873291</v>
+        <v>2.4813618659973145</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.566326379776001</v>
+        <v>2.6464903354644775</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7067620754241943</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>0.0</v>
@@ -3927,56 +3927,56 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>49.709861755371094</v>
+        <v>44.76786422729492</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-10.288084030151367</v>
+        <v>-43.54024124145508</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1005.27392578125</v>
+        <v>1024.3548583984375</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>21.399198532104492</v>
+        <v>23.5</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>20.25008773803711</v>
+        <v>29.61688804626465</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 07:50:00</t>
+          <t>2023-07-24 14:50:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.10624311119318008</v>
+        <v>0.010665055364370346</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.40678349137306213</v>
+        <v>0.4757344126701355</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>2.7647950649261475</v>
+        <v>2.756796360015869</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2.4046390056610107</v>
+        <v>2.482116222381592</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>2.598688840866089</v>
+        <v>2.653079032897949</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>0.0</v>
+        <v>2.695660352706909</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>0.0</v>
@@ -3985,56 +3985,56 @@
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>49.69994354248047</v>
+        <v>44.91950607299805</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-9.23794937133789</v>
+        <v>-43.065494537353516</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1005.4335327148438</v>
+        <v>1024.270751953125</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>20.100299835205078</v>
+        <v>23.799850463867188</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>20.886932373046875</v>
+        <v>30.200000762939453</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 09:50:00</t>
+          <t>2023-07-24 15:50:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.15124575793743134</v>
+        <v>0.031030332669615746</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.4804603159427643</v>
+        <v>0.45915454626083374</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>2.7905054092407227</v>
+        <v>2.7289540767669678</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>2.448512315750122</v>
+        <v>2.46718692779541</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.629343271255493</v>
+        <v>2.6351029872894287</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6859242916107178</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>0.0</v>
@@ -4043,56 +4043,56 @@
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>49.680686950683594</v>
+        <v>45.06835174560547</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-8.171431541442871</v>
+        <v>-42.59102249145508</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1005.5930786132812</v>
+        <v>1023.8616943359375</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>20.599599838256836</v>
+        <v>23.366933822631836</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>22.118938446044922</v>
+        <v>27.756568908691406</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 11:50:00</t>
+          <t>2023-07-24 16:50:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.19624841213226318</v>
+        <v>0.051395609974861145</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.42111536860466003</v>
+        <v>0.3316870331764221</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>2.7922792434692383</v>
+        <v>2.7276339530944824</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>2.453470230102539</v>
+        <v>2.4604761600494385</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>2.6175436973571777</v>
+        <v>2.624598979949951</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6667263507843018</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>0.0</v>
@@ -4101,56 +4101,56 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>49.65099334716797</v>
+        <v>45.21451187133789</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-7.0998759269714355</v>
+        <v>-42.115867614746094</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1005.752685546875</v>
+        <v>1023.45263671875</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>20.6012020111084</v>
+        <v>22.850200653076172</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>22.984493255615234</v>
+        <v>26.7061824798584</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 13:50:00</t>
+          <t>2023-07-24 17:50:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.03475493565201759</v>
+        <v>0.0717608854174614</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.4509892165660858</v>
+        <v>0.42023152112960815</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>2.7718966007232666</v>
+        <v>2.738227367401123</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>2.4392123222351074</v>
+        <v>2.4829258918762207</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2.609971046447754</v>
+        <v>2.6292777061462402</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>0.0</v>
+        <v>2.681509017944336</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>0.0</v>
@@ -4159,56 +4159,56 @@
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>49.63021469116211</v>
+        <v>45.36009216308594</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-6.051477432250977</v>
+        <v>-41.633968353271484</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1005.9122314453125</v>
+        <v>1023.0435791015625</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>21.05022621154785</v>
+        <v>23.58882713317871</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>22.005523681640625</v>
+        <v>27.150352478027344</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 15:50:00</t>
+          <t>2023-07-24 18:50:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.07686293125152588</v>
+        <v>0.09212616086006165</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.5242791175842285</v>
+        <v>0.4651559293270111</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>2.794389486312866</v>
+        <v>2.7411351203918457</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2.47025728225708</v>
+        <v>2.472336530685425</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>2.6393094062805176</v>
+        <v>2.641775131225586</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6910271644592285</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>0.0</v>
@@ -4217,56 +4217,56 @@
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>49.69837951660156</v>
+        <v>45.50403594970703</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-5.02702522277832</v>
+        <v>-41.14857482910156</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1006.0718383789062</v>
+        <v>1022.634521484375</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>20.6004695892334</v>
+        <v>24.07559585571289</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>22.281888961791992</v>
+        <v>26.421506881713867</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 17:50:00</t>
+          <t>2023-07-24 19:50:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.11897092312574387</v>
+        <v>0.1124914363026619</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.5158224105834961</v>
+        <v>0.45961812138557434</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>2.7911264896392822</v>
+        <v>2.7390236854553223</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>2.44714093208313</v>
+        <v>2.466041326522827</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>2.616461753845215</v>
+        <v>2.638977289199829</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6810522079467773</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>0.0</v>
@@ -4275,56 +4275,56 @@
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>49.89094161987305</v>
+        <v>45.64356231689453</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-4.04195499420166</v>
+        <v>-40.667911529541016</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1006.0662841796875</v>
+        <v>1022.2254638671875</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>20.9334659576416</v>
+        <v>23.260229110717773</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>23.251497268676758</v>
+        <v>28.140586853027344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 19:50:00</t>
+          <t>2023-07-24 20:50:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.16107891499996185</v>
+        <v>0.13285671174526215</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.5419898629188538</v>
+        <v>0.5945889353752136</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>2.7788338661193848</v>
+        <v>2.7452287673950195</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2.441485643386841</v>
+        <v>2.475602388381958</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>2.610858917236328</v>
+        <v>2.6393821239471436</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6718876361846924</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>0.0</v>
@@ -4333,56 +4333,56 @@
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>50.148983001708984</v>
+        <v>45.77973556518555</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-3.124171257019043</v>
+        <v>-40.1905403137207</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1006.0254516601562</v>
+        <v>1021.81640625</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>21.050251007080078</v>
+        <v>22.660133361816406</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>20.089786529541016</v>
+        <v>25.98006820678711</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 21:50:00</t>
+          <t>2023-07-24 21:50:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.09682320058345795</v>
+        <v>0.153221994638443</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.6894574165344238</v>
+        <v>0.4365837574005127</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7402875423431396</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1.62942373752594</v>
+        <v>2.4643638134002686</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1.6397995948791504</v>
+        <v>2.621905565261841</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6678500175476074</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>0.0</v>
@@ -4391,56 +4391,56 @@
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.317081451416016</v>
+        <v>45.91267013549805</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-2.2189674377441406</v>
+        <v>-39.71467971801758</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1005.9845581054688</v>
+        <v>1021.4072875976562</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>1.7000000476837158</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>1.7000000476837158</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>1.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>1.8000000715255737</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>14.328530311584473</v>
+        <v>22.09929847717285</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>19.799999237060547</v>
+        <v>24.1500244140625</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2023-07-27 23:50:00</t>
+          <t>2023-07-24 22:50:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.19954970479011536</v>
+        <v>0.17358726263046265</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.5763553380966187</v>
+        <v>0.41747909784317017</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7154202461242676</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>2.011960983276367</v>
+        <v>2.4492149353027344</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>2.25612473487854</v>
+        <v>2.6123132705688477</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.659625291824341</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>0.0</v>
@@ -4449,147 +4449,4555 @@
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.42184066772461</v>
+        <v>46.0450439453125</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-1.5475096702575684</v>
+        <v>-39.231075286865234</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1005.9436645507812</v>
+        <v>1020.9982299804688</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>3.0</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>3.1000001430511475</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>3.0</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>3.0</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>16.200000762939453</v>
+        <v>23.399999618530273</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>20.110820770263672</v>
+        <v>23.904949188232422</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2023-07-28 01:50:00</t>
+          <t>2023-07-24 23:50:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.023062819615006447</v>
+        <v>0.1939525455236435</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.34169819951057434</v>
+        <v>0.4787787199020386</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.698211908340454</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>0.7073830366134644</v>
+        <v>2.4347503185272217</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>0.8867601752281189</v>
+        <v>2.6079652309417725</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.642742156982422</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>2.4377999305725098</v>
+        <v>0.0</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.62705993652344</v>
+        <v>46.177188873291016</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-0.9725669622421265</v>
+        <v>-38.73909378051758</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1005.90283203125</v>
+        <v>1020.5891723632812</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>1.100000023841858</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>11.300000190734863</v>
+        <v>22.86654281616211</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>20.521617889404297</v>
+        <v>23.802526473999023</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
+          <t>2023-07-25 00:50:00</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>0.41207003593444824</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>0.14061994850635529</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>2.6695237159729004</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>2.416539192199707</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>2.5719199180603027</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>2.613229513168335</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>46.30833435058594</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>-38.23965072631836</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>1020.1801147460938</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q77" s="2" t="n">
+        <v>22.699899673461914</v>
+      </c>
+      <c r="R77" s="2" t="n">
+        <v>23.57194709777832</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 01:50:00</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.3719598650932312</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.11672364175319672</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2.67559814453125</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>2.411935806274414</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>2.5808374881744385</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>2.623441696166992</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>46.438087463378906</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>-37.73524856567383</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>1019.7710571289062</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>23.17987823486328</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>23.337949752807617</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 02:50:00</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.3254913091659546</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.24595250189304352</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2.6758689880371094</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>2.4055721759796143</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>2.586923837661743</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>2.6281769275665283</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>46.56675720214844</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>-37.22319793701172</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>1019.3619995117188</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>22.899999618530273</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>23.128677368164062</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 03:50:00</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.013386215083301067</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.30582037568092346</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2.668384075164795</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>2.404841899871826</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>2.567302703857422</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>2.609339952468872</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>46.694644927978516</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>-36.703426361083984</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>1018.9396362304688</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>22.248746871948242</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>22.924190521240234</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 04:50:00</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.04142039641737938</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.446200430393219</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2.6646933555603027</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>2.38751482963562</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>2.5698180198669434</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>2.6058738231658936</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>46.820701599121094</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>-36.178470611572266</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>1018.4150390625</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>22.50010108947754</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>22.719703674316406</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 05:50:00</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.06945458054542542</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.3119923770427704</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>2.6771998405456543</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>2.4200944900512695</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>2.575885057449341</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>2.611354351043701</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>46.94116973876953</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>-35.66396713256836</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>1017.890380859375</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>22.44297218322754</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>22.85004425048828</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 06:50:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.09748876094818115</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.37265023589134216</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2.684279441833496</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>2.415344476699829</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2.5761430263519287</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>2.6190290451049805</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>47.05970001220703</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-35.1466064453125</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1017.36572265625</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>22.76671028137207</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>22.98975944519043</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 07:50:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.1255229413509369</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.4520036578178406</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>2.708273410797119</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>2.4371163845062256</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.6087236404418945</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>2.6522789001464844</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>47.17667007446289</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-34.62298583984375</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1016.841064453125</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>23.200267791748047</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>23.245269775390625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 08:50:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.15355713665485382</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.36127856373786926</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>2.7867605686187744</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>2.4994781017303467</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>2.6647284030914307</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>2.716646671295166</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>47.29146957397461</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-34.09531784057617</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1016.31640625</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>23.600000381469727</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>23.529949188232422</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 09:50:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.18159131705760956</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.5249163508415222</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2.7868812084198</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>2.510895013809204</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>2.6846752166748047</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>2.7345290184020996</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>47.40514373779297</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-33.5595817565918</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1015.791748046875</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>22.700000762939453</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>24.347002029418945</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 10:50:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.2449212521314621</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.3204551935195923</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>2.8084945678710938</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>2.5318374633789062</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2.7018604278564453</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>2.747363805770874</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>47.51768493652344</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-33.014705657958984</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1015.26708984375</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>22.600000381469727</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>24.98380470275879</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 11:50:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.19866587221622467</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.29334670305252075</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>2.81563401222229</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>2.547004461288452</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.7030465602874756</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>2.7557871341705322</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>47.62843322753906</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-32.464134216308594</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1014.742431640625</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>24.166667938232422</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>24.988492965698242</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 12:50:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.01713067851960659</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.46236497163772583</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>2.8263661861419678</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>2.544534921646118</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>2.7145514488220215</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>2.7623775005340576</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>47.73518753051758</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-31.91892433166504</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1014.2177734375</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>24.899749755859375</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>27.112802505493164</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 13:50:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.04397018998861313</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.35438624024391174</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>2.8175318241119385</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>2.547687292098999</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.7115283012390137</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>2.754340648651123</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>47.838401794433594</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-31.374629974365234</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1013.6931762695312</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>23.30120277404785</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>27.075178146362305</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 14:50:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.07080969959497452</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.4552619755268097</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>2.7105917930603027</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>2.3958580493927</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.50203013420105</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>2.6521527767181396</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>47.93864822387695</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-30.831729888916016</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1013.1685180664062</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>24.100101470947266</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>25.94571304321289</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 15:50:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.0976492166519165</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.4919891953468323</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>2.440217971801758</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>2.1800613403320312</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>2.415332078933716</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>48.026832580566406</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-30.33876609802246</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1012.6438598632812</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>19.09969711303711</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>24.75971794128418</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 16:50:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.1244887262582779</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.4233873784542084</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>2.597066640853882</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>2.3099007606506348</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2.5119552612304688</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>2.557011842727661</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>48.115901947021484</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-29.828723907470703</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1012.1192016601562</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>8.300000190734863</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>21.800048828125</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>23.641176223754883</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 17:50:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.15132823586463928</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.47804486751556396</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2.7846715450286865</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>2.4741461277008057</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>2.650085926055908</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>2.7338502407073975</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>48.20767593383789</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-29.283203125</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1011.5945434570312</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>22.699800491333008</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>23.354434967041016</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 18:50:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.17816774547100067</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.42056453227996826</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>2.761192798614502</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>2.438385486602783</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>2.6293816566467285</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>2.6808676719665527</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>48.296043395996094</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-28.744787216186523</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1011.0698852539062</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>23.699464797973633</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>23.04641342163086</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 19:50:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.877396821975708</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.5490138530731201</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>2.7568836212158203</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>2.4451487064361572</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>2.612445116043091</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>2.675851345062256</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>48.38170623779297</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-28.203672409057617</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1010.5452270507812</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>23.714170455932617</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>22.570812225341797</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 20:50:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.20989654958248138</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.30589213967323303</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>2.757354497909546</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>2.451967716217041</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.6327617168426514</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>2.6886496543884277</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>48.46585464477539</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-27.654375076293945</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1010.0205688476562</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>23.800533294677734</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>22.095211029052734</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 21:50:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.17875386774539948</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.32541629672050476</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>2.7627527713775635</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2.4381258487701416</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.620175838470459</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>2.672182321548462</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>48.547420501708984</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-27.103797912597656</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1009.4959106445312</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>22.801069259643555</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 22:50:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.01697707362473011</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.5174403786659241</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>2.7421913146972656</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2.4260802268981934</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2.601905584335327</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>2.6625237464904785</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>48.62584686279297</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-26.555559158325195</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1008.9713134765625</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>22.474802017211914</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>21.86942481994629</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-25 23:50:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.034819312393665314</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.37774190306663513</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>2.7138030529022217</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2.4027884006500244</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>2.585214853286743</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>2.629575729370117</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>48.702205657958984</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-26.000890731811523</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1008.4876098632812</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>23.599849700927734</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>21.510793685913086</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 00:50:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.052661553025245667</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.32904714345932007</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>2.703155994415283</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>2.390934705734253</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.5778968334198</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>2.620410680770874</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>48.774436950683594</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-25.452592849731445</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1008.0238037109375</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>22.3571834564209</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>21.084192276000977</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 01:50:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.07050379365682602</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.41990193724632263</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>2.6882596015930176</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>2.3991200923919678</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>2.558641195297241</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>2.6259472370147705</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>48.844791412353516</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-24.901302337646484</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1007.5599975585938</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>22.4993953704834</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>20.657590866088867</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 02:50:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.08834603428840637</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.3441963195800781</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2.6929290294647217</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>2.3855881690979004</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>2.567697763442993</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>2.615431785583496</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>48.91223907470703</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-24.347179412841797</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1007.09619140625</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>24.500268936157227</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>20.866567611694336</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 03:50:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.10618827491998672</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.3249678313732147</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>2.8839755058288574</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>2.5967164039611816</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.7740864753723145</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>2.7906746864318848</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>48.96764373779297</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-23.777910232543945</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1006.6323852539062</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>10.699999809265137</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>23.399700164794922</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>21.17473602294922</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 04:50:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.12403051555156708</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.4922442138195038</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>2.8158011436462402</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>2.522213935852051</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.707720994949341</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>2.7625489234924316</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>49.02074432373047</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-23.20894432067871</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1006.1685791015625</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>10.40000057220459</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>10.600000381469727</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>22.933456420898438</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>21.233156204223633</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 05:50:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.14187274873256683</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.2974821925163269</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>2.819406747817993</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>2.532789707183838</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>2.7232420444488525</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>2.772883415222168</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>49.103458404541016</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-22.636991500854492</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1005.7047119140625</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>10.40000057220459</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>10.600000381469727</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>24.167760848999023</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>21.12053680419922</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 06:50:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.15971499681472778</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.36938801407814026</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>2.830028533935547</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>2.5315351486206055</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>2.72666335105896</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>2.7756752967834473</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>49.16088104248047</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-22.066492080688477</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1005.2409057617188</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>10.40000057220459</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>10.600000381469727</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>22.900299072265625</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>20.949874877929688</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 07:50:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.17755722999572754</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.3728266954421997</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>2.840590000152588</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>2.547360897064209</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>2.74041748046875</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>2.781336784362793</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>49.215576171875</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-21.49616241455078</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1004.9942016601562</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>10.40000057220459</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>10.600000381469727</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>22.80040168762207</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>21.01875877380371</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 08:50:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.1953994780778885</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.3969152867794037</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>1.7650766372680664</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>1.608363389968872</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>1.6152255535125732</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>1.6819390058517456</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>49.26337814331055</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-20.973278045654297</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1004.9821166992188</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>4.400000095367432</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>18.40030288696289</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>21.190847396850586</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 09:50:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.009777605533599854</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.4965488016605377</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>2.3091955184936523</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>2.0669212341308594</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>2.11365008354187</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>49.301944732666016</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-20.5267333984375</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1004.9700317382812</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>19.04030418395996</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>21.367464065551758</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 10:50:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.07629524916410446</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.5067420601844788</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>2.647106170654297</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>2.323268175125122</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>2.4677236080169678</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>49.34041976928711</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-20.064918518066406</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1004.9579467773438</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>19.899879455566406</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>24.462541580200195</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 11:50:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.14281289279460907</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.5459766387939453</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>2.6454694271087646</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>2.3654415607452393</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>2.500084400177002</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>49.37890625</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-19.574745178222656</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1004.9458618164062</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>21.05008888244629</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>25.1702823638916</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 12:50:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.6063228249549866</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.6659216284751892</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2.750612497329712</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>2.449084997177124</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>2.607442617416382</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>49.416259765625</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-19.069141387939453</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1004.9337768554688</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>20.799999237060547</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>26.872257232666016</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 13:50:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.04289749637246132</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.4407898485660553</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>2.7628960609436035</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>2.43042254447937</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>2.5956578254699707</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>49.45145797729492</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-18.560667037963867</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1004.9216918945312</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>20.799999237060547</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>24.221912384033203</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 14:50:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.08813919126987457</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.4169008135795593</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>2.748178243637085</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>2.419934034347534</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>2.581474781036377</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>49.484886169433594</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-18.046463012695312</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1004.9095458984375</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>20.200700759887695</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>24.04908561706543</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 15:50:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.13338088989257812</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.473022997379303</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>2.764413356781006</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>2.4310600757598877</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>2.594437837600708</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>49.516014099121094</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-17.536577224731445</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1004.8974609375</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>20.48880958557129</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>24.922794342041016</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 16:50:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.17862257361412048</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.5029825568199158</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>2.7497644424438477</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>2.4306676387786865</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>2.5930938720703125</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>49.544490814208984</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-17.029178619384766</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1004.8853759765625</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>20.800960540771484</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>25.28961944580078</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 17:50:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.006262877490371466</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.4110335111618042</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>2.7748196125030518</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>2.412860155105591</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>2.598451852798462</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>49.57059097290039</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-16.521442413330078</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1004.873291015625</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>20.539663314819336</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>22.857290267944336</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 18:50:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.02798161469399929</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.5144755244255066</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>2.7719650268554688</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>2.4080145359039307</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>2.610347270965576</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>49.594791412353516</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-16.010929107666016</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1004.8612060546875</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>20.249624252319336</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>21.437114715576172</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 19:50:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.04970035329461098</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.49483397603034973</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>2.763159990310669</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>2.4076764583587646</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>2.6031479835510254</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>49.61648941040039</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-15.499387741088867</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1004.84912109375</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>20.699697494506836</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>20.334714889526367</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 20:50:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.07141909003257751</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.43528419733047485</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>2.769973039627075</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>2.4150514602661133</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>2.6079108715057373</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>49.63619613647461</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-14.985936164855957</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1004.8370361328125</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>20.100000381469727</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 21:50:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.09313783049583435</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.4458366334438324</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>2.743978500366211</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>2.379777431488037</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>2.5778398513793945</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>49.6536865234375</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-14.462615966796875</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1004.824951171875</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>20.250303268432617</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 22:50:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.11485656350851059</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.43500927090644836</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2.7225944995880127</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>2.35453462600708</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>2.5628952980041504</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>49.66913986206055</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-13.933520317077637</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1004.8128662109375</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>20.800601959228516</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-26 23:50:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.13657531142234802</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.34947237372398376</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>2.701436996459961</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>2.345479965209961</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.544358015060425</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>49.68217086791992</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-13.403825759887695</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1004.80078125</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 00:50:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.15829403698444366</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.5379776954650879</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>2.7157206535339355</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2.3506381511688232</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2.5547001361846924</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>49.692405700683594</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-12.884614944458008</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1004.875</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>20.600000381469727</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>19.849496841430664</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 01:50:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.1800127774477005</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.46656858921051025</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>2.727627992630005</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>2.3554012775421143</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2.554201602935791</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>49.70073318481445</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-12.366779327392578</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1004.9547729492188</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>21.00119972229004</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>19.922584533691406</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 02:50:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.20173151791095734</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.4066946804523468</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>2.7180392742156982</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>2.3704066276550293</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>2.5513832569122314</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>49.706233978271484</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-11.848388671875</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1005.0345458984375</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>20.799999237060547</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 03:50:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.016237810254096985</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.36835092306137085</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>2.702180862426758</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>2.3425633907318115</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>2.5413877964019775</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>49.70987319946289</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-11.33161735534668</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1005.1143798828125</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>20.599599838256836</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>20.199485778808594</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 04:50:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.03873913735151291</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.35973405838012695</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>2.7141735553741455</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>2.359994888305664</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>2.5567221641540527</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>49.711124420166016</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-10.807190895080566</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1005.1941528320312</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>20.40020179748535</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>20.200000762939453</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 05:50:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.061240460723638535</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.5017463564872742</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>2.71951961517334</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>2.369020938873291</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2.566326379776001</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>49.709861755371094</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-10.288084030151367</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1005.27392578125</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>21.399198532104492</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>20.25008773803711</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 06:50:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.08374178409576416</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.5464633703231812</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>2.7420144081115723</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>2.383981227874756</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.5807809829711914</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>49.70621871948242</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-9.761332511901855</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1005.3536987304688</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>22.350627899169922</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>20.779199600219727</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 07:50:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.10624311119318008</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.40678349137306213</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>2.7647950649261475</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>2.4046390056610107</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>2.598688840866089</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>49.69994354248047</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-9.23794937133789</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1005.4335327148438</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>20.100299835205078</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>20.886932373046875</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 08:50:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.128744438290596</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.4922320246696472</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>2.785649061203003</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>2.4486989974975586</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>2.6067142486572266</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.69176483154297</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-8.707938194274902</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1005.5133056640625</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>21.1990966796875</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>20.91146469116211</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 09:50:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.15124575793743134</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.4804603159427643</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>2.7905054092407227</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>2.448512315750122</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>2.629343271255493</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.680686950683594</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-8.171431541442871</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1005.5930786132812</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>20.599599838256836</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>22.118938446044922</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 10:50:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.17374707758426666</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.45938313007354736</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>2.792348861694336</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>2.4594409465789795</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>2.625338554382324</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>49.66691970825195</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-7.632567882537842</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1005.6728515625</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>20.419832229614258</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>22.373977661132812</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 11:50:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.19624841213226318</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.42111536860466003</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>2.7922792434692383</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>2.453470230102539</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>2.6175436973571777</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>49.65099334716797</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-7.0998759269714355</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1005.752685546875</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>20.6012020111084</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>22.984493255615234</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 12:50:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.0137009397149086</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.39559251070022583</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>2.804013252258301</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>2.4721319675445557</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>2.652677297592163</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>49.63338088989258</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-6.5708184242248535</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1005.8324584960938</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>21.287429809570312</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>22.889421463012695</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 13:50:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.03475493565201759</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.4509892165660858</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>2.7718966007232666</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>2.4392123222351074</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>2.609971046447754</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.63021469116211</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-6.051477432250977</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1005.9122314453125</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>21.05022621154785</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>22.005523681640625</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 14:50:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.05580893158912659</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.37295374274253845</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>2.7778613567352295</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>2.4348957538604736</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>2.6119437217712402</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.65958023071289</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-5.538250923156738</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1005.9920654296875</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>20.700000762939453</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>22.007858276367188</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 15:50:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.07686293125152588</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.5242791175842285</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>2.794389486312866</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>2.47025728225708</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>2.6393094062805176</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.69837951660156</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-5.02702522277832</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1006.0718383789062</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>20.6004695892334</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>22.281888961791992</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 16:50:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.09791692346334457</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.4370405375957489</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>2.779498815536499</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>2.4482388496398926</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>2.6399147510528564</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>49.79253005981445</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-4.534487247467041</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1006.0867309570312</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>20.549875259399414</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>22.179492950439453</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 17:50:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.11897092312574387</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.5158224105834961</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>2.7911264896392822</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>2.44714093208313</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>2.616461753845215</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>49.89094161987305</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-4.04195499420166</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1006.0662841796875</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>20.9334659576416</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>23.251497268676758</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 18:50:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.14002491533756256</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.5474666953086853</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>2.7857935428619385</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>2.452240228652954</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>2.6217188835144043</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>49.967105865478516</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-3.5419647693634033</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1006.0458984375</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>20.549875259399414</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>21.82697868347168</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 19:50:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.16107891499996185</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.5419898629188538</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>2.7788338661193848</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>2.441485643386841</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>2.610858917236328</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>50.148983001708984</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-3.124171257019043</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1006.0254516601562</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>21.050251007080078</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>20.089786529541016</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 20:50:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.18213291466236115</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.53801429271698</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>2.752756118774414</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>2.4095098972320557</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>2.5874733924865723</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.24691390991211</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-2.651501417160034</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1006.0050048828125</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>20.26653289794922</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>19.6833553314209</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 21:50:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.09682320058345795</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.6894574165344238</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>1.62942373752594</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>1.6397995948791504</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.317081451416016</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-2.2189674377441406</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1005.9845581054688</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>1.8000000715255737</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>14.328530311584473</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>19.799999237060547</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 22:50:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.09953992813825607</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.5240125060081482</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>1.4895628690719604</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>1.5467722415924072</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.36410140991211</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-1.9261380434036255</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1005.964111328125</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>11.885677337646484</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>19.947227478027344</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-27 23:50:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.19954970479011536</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.5763553380966187</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>2.011960983276367</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>2.25612473487854</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.42184066772461</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-1.5475096702575684</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1005.9436645507812</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>3.1000001430511475</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>16.200000762939453</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>20.110820770263672</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-28 00:50:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.17861464619636536</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.42052632570266724</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>1.3986328840255737</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>1.5557260513305664</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.47929763793945</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.1748020648956299</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1005.9232788085938</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>11.94003963470459</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>20.2744140625</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-28 01:50:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.023062819615006447</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.34169819951057434</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>0.7073830366134644</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>0.8867601752281189</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>2.4377999305725098</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.62705993652344</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-0.9725669622421265</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1005.90283203125</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>11.300000190734863</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>20.521617889404297</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-28 02:50:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.061097342520952225</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.06854322552680969</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1.8390854597091675</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>2.1197333335876465</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>4.605300426483154</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.76203536987305</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-1.1913501024246216</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1005.8823852539062</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>20.200000762939453</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>20.671293258666992</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
           <t>2023-07-28 03:50:00</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B152" s="2" t="n">
         <v>0.09913186728954315</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C152" s="2" t="n">
         <v>0.1643659919500351</v>
       </c>
-      <c r="D77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E77" s="2" t="n">
+      <c r="D152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="2" t="n">
         <v>0.5177074670791626</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F152" s="2" t="n">
         <v>0.685333251953125</v>
       </c>
-      <c r="G77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H77" s="2" t="n">
+      <c r="G152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" s="2" t="n">
         <v>2.152200222015381</v>
       </c>
-      <c r="I77" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J77" s="2" t="n">
+      <c r="I152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="2" t="n">
         <v>50.86632537841797</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="K152" s="2" t="n">
         <v>-1.3709437847137451</v>
       </c>
-      <c r="L77" s="2" t="n">
+      <c r="L152" s="2" t="n">
         <v>1005.8619384765625</v>
       </c>
-      <c r="M77" s="2" t="n">
+      <c r="M152" s="2" t="n">
         <v>0.699999988079071</v>
       </c>
-      <c r="N77" s="2" t="n">
+      <c r="N152" s="2" t="n">
         <v>0.699999988079071</v>
       </c>
-      <c r="O77" s="2" t="n">
+      <c r="O152" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="P77" s="2" t="n">
+      <c r="P152" s="2" t="n">
         <v>0.699999988079071</v>
       </c>
-      <c r="Q77" s="2" t="n">
+      <c r="Q152" s="2" t="n">
         <v>9.742881774902344</v>
       </c>
-      <c r="R77" s="2" t="n">
+      <c r="R152" s="2" t="n">
         <v>21.234153747558594</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2023-07-28 04:50:00</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.13716639578342438</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.2601887583732605</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>0.5812702775001526</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>0.7406297922134399</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>2.223600149154663</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>50.904605865478516</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>-1.4312056303024292</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>1005.8414916992188</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>1.518072485923767</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>20.200000762939453</v>
       </c>
     </row>
   </sheetData>
